--- a/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T22:14:36+00:00</t>
+    <t>2022-06-01T13:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:56:45+00:00</t>
+    <t>2022-06-01T15:57:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:57:53+00:00</t>
+    <t>2022-06-06T08:53:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T08:53:46+00:00</t>
+    <t>2022-06-06T12:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:41:09+00:00</t>
+    <t>2022-06-07T12:51:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:51:30+00:00</t>
+    <t>2022-06-08T14:01:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -536,7 +536,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="urn:iso:std:iso:3166"/&gt;
-    &lt;code value="BE"/&gt;
+    &lt;code value="BEL"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>

--- a/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-08T14:01:48+00:00</t>
+    <t>2022-06-10T09:36:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T09:36:45+00:00</t>
+    <t>2022-06-13T16:57:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-13T16:57:46+00:00</t>
+    <t>2022-06-20T14:38:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-20T14:38:33+00:00</t>
+    <t>2022-06-28T09:17:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/BEIdentifiableProduct</t>
+    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/BEIdentifiableProduct</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T09:17:31+00:00</t>
+    <t>2022-06-28T12:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -439,7 +439,7 @@
     <t>jurisdiction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/medigree/StructureDefinition/artifact-jurisdiction}
+    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/mpd/StructureDefinition/artifact-jurisdiction}
 </t>
   </si>
   <si>
@@ -492,7 +492,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/artifact-jurisdiction</t>
+    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/artifact-jurisdiction</t>
   </si>
   <si>
     <t>Extension.url</t>

--- a/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/BEIdentifiableProduct</t>
+    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/BEIdentifiableProduct</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:38:26+00:00</t>
+    <t>2022-06-28T12:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -439,7 +439,7 @@
     <t>jurisdiction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/mpd/StructureDefinition/artifact-jurisdiction}
+    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/medigree/StructureDefinition/artifact-jurisdiction}
 </t>
   </si>
   <si>
@@ -492,7 +492,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/artifact-jurisdiction</t>
+    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/artifact-jurisdiction</t>
   </si>
   <si>
     <t>Extension.url</t>

--- a/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:41:32+00:00</t>
+    <t>2022-06-28T12:44:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:44:43+00:00</t>
+    <t>2022-08-13T20:35:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2221,42 +2221,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="82.70703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="82.7109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="103.01953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.0234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="62.4609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.5859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="62.46484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.58984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.93359375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.9375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="81.0859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="46.52734375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="46.53125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="195.5390625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/BEIdentifiableProduct</t>
+    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/BEIdentifiableProduct</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T13:06:24+00:00</t>
+    <t>2022-10-06T17:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -439,7 +439,7 @@
     <t>jurisdiction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/mpd/StructureDefinition/artifact-jurisdiction}
+    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/medigree/StructureDefinition/artifact-jurisdiction}
 </t>
   </si>
   <si>
@@ -496,7 +496,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/artifact-jurisdiction</t>
+    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/artifact-jurisdiction</t>
   </si>
   <si>
     <t>Extension.url</t>

--- a/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T17:30:01+00:00</t>
+    <t>2022-10-06T17:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:36:27+00:00</t>
+    <t>2022-10-08T08:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:41:45+00:00</t>
+    <t>2022-10-08T08:44:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:44:11+00:00</t>
+    <t>2022-10-08T08:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BEIdentifiableProduct.xlsx
+++ b/StructureDefinition-BEIdentifiableProduct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:47:47+00:00</t>
+    <t>2022-10-08T09:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
